--- a/Cash.xlsx
+++ b/Cash.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="19">
   <si>
     <t>Tulip-2</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>S.S Daffodils</t>
+  </si>
+  <si>
+    <t>Date: 17.04.19</t>
   </si>
 </sst>
 </file>
@@ -247,45 +250,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -293,33 +282,47 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1312,7 +1315,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1323,7 +1326,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:E38"/>
+      <selection activeCell="A45" sqref="A45:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1341,725 +1344,747 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="15" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="4">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="26">
         <v>68</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4">
+      <c r="F6" s="26"/>
+      <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="4">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="26">
         <v>135</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4">
+      <c r="F7" s="26"/>
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="26">
         <v>53</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4">
+      <c r="F8" s="26"/>
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="26">
         <v>2</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4">
+      <c r="F9" s="26"/>
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="26">
         <v>5</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4">
+      <c r="F10" s="26"/>
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="16" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15">
+      <c r="E12" s="23"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
         <v>141000</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="21" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-    </row>
-    <row r="19" spans="1:10" s="6" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="11" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="23" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="26" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
     </row>
     <row r="28" spans="1:10" ht="18">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:10" ht="18.75">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
     </row>
     <row r="30" spans="1:10" ht="40.5" customHeight="1">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="17" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="17" t="s">
+      <c r="F31" s="21"/>
+      <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="22">
         <v>68</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>68000</v>
       </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="22">
         <v>135</v>
       </c>
-      <c r="F33" s="3"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>67500</v>
       </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="22">
         <v>53</v>
       </c>
-      <c r="F34" s="3"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>5300</v>
       </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="22">
         <v>2</v>
       </c>
-      <c r="F35" s="3"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="22">
         <v>5</v>
       </c>
-      <c r="F36" s="3"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="19" t="s">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17">
+      <c r="E38" s="16"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
         <v>141000</v>
       </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-    </row>
-    <row r="42" spans="1:10" s="7" customFormat="1" ht="15.75">
-      <c r="A42" s="12" t="s">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75">
+      <c r="A42" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="12" t="s">
+      <c r="B42" s="13"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-    </row>
-    <row r="45" spans="1:10" s="6" customFormat="1" ht="15.75">
-      <c r="A45" s="11" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75">
+      <c r="A45" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="11" t="s">
+      <c r="B45" s="14"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="26" t="s">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="A42:B42"/>
@@ -2076,28 +2101,6 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:J3"/>
   </mergeCells>
   <pageMargins left="0.5" right="0" top="0.25" bottom="0" header="0.3" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
@@ -2109,7 +2112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A35" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2128,729 +2131,753 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="15" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="4">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="26">
         <v>68</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4">
+      <c r="F6" s="26"/>
+      <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="4">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="26">
         <v>135</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4">
+      <c r="F7" s="26"/>
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="26">
         <v>53</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4">
+      <c r="F8" s="26"/>
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="26">
         <v>2</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4">
+      <c r="F9" s="26"/>
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="26">
         <v>5</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4">
+      <c r="F10" s="26"/>
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="16" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15">
+      <c r="E12" s="23"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
         <v>141000</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="21" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-    </row>
-    <row r="19" spans="1:10" s="6" customFormat="1">
-      <c r="A19" s="11" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1">
+      <c r="A19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="23" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="26" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
     </row>
     <row r="28" spans="1:10" ht="18">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:10" ht="18.75">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:10" ht="20.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="17" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="17" t="s">
+      <c r="F31" s="21"/>
+      <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" ht="20.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="22">
         <v>68</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>68000</v>
       </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" ht="20.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="22">
         <v>135</v>
       </c>
-      <c r="F33" s="3"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>67500</v>
       </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" ht="20.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="22">
         <v>53</v>
       </c>
-      <c r="F34" s="3"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>5300</v>
       </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" ht="20.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="22">
         <v>2</v>
       </c>
-      <c r="F35" s="3"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="20.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="22">
         <v>5</v>
       </c>
-      <c r="F36" s="3"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" ht="20.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="20.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="30" t="s">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17">
+      <c r="E38" s="29"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
         <v>141000</v>
       </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-    </row>
-    <row r="42" spans="1:10" s="7" customFormat="1" ht="15.75">
-      <c r="A42" s="12" t="s">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75">
+      <c r="A42" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="12" t="s">
+      <c r="B42" s="13"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-    </row>
-    <row r="45" spans="1:10" s="6" customFormat="1" ht="15.75">
-      <c r="A45" s="11" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75">
+      <c r="A45" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="11" t="s">
+      <c r="B45" s="14"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="26" t="s">
+      <c r="B46" s="28"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A46:B46"/>
@@ -2867,30 +2894,6 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -2903,8 +2906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2922,729 +2925,751 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="A4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="15" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="4">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="5">
-        <v>68</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4">
+      <c r="E6" s="26">
+        <v>19</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>68000</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+        <v>19000</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="4">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="5">
-        <v>135</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4">
+      <c r="E7" s="26">
+        <v>152</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>67500</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+        <v>76000</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="5">
-        <v>53</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4">
+      <c r="E8" s="26">
+        <v>190</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>5300</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+        <v>19000</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="5">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="4">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5">
-        <v>5</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="4">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="27.95" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="3">
+        <v>20</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="27.95" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="27.95" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="16" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15">
+      <c r="E12" s="23"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
-        <v>141000</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+        <v>114000</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="21" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-    </row>
-    <row r="19" spans="1:10" s="6" customFormat="1">
-      <c r="A19" s="11" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1">
+      <c r="A19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="23" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="26" t="s">
+      <c r="B20" s="30"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
     </row>
     <row r="28" spans="1:10" ht="18">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:10" ht="18.75">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
+      <c r="A30" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:10" ht="20.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="17" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="17" t="s">
+      <c r="F31" s="21"/>
+      <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-    </row>
-    <row r="32" spans="1:10" ht="20.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" ht="23.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
-        <v>68</v>
-      </c>
-      <c r="F32" s="3"/>
+      <c r="E32" s="26">
+        <v>19</v>
+      </c>
+      <c r="F32" s="26"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
-        <v>68000</v>
-      </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
+        <v>19000</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" ht="20.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
-        <v>135</v>
-      </c>
-      <c r="F33" s="3"/>
+      <c r="E33" s="22">
+        <v>152</v>
+      </c>
+      <c r="F33" s="22"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
-        <v>67500</v>
-      </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
+        <v>76000</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" ht="20.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="3">
-        <v>53</v>
-      </c>
-      <c r="F34" s="3"/>
+      <c r="E34" s="22">
+        <v>190</v>
+      </c>
+      <c r="F34" s="22"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
-        <v>5300</v>
-      </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
+        <v>19000</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" ht="20.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="3">
-        <v>2</v>
-      </c>
-      <c r="F35" s="3"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="20.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="3">
-        <v>5</v>
-      </c>
-      <c r="F36" s="3"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" ht="20.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="20.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="30" t="s">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17">
+      <c r="E38" s="29"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
-        <v>141000</v>
-      </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
+        <v>114000</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-    </row>
-    <row r="42" spans="1:10" s="7" customFormat="1" ht="15.75">
-      <c r="A42" s="12" t="s">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75">
+      <c r="A42" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="12" t="s">
+      <c r="B42" s="13"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-    </row>
-    <row r="45" spans="1:10" s="6" customFormat="1" ht="15.75">
-      <c r="A45" s="11" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75">
+      <c r="A45" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="11" t="s">
+      <c r="B45" s="14"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="26" t="s">
+      <c r="B46" s="28"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="H45:J45"/>
     <mergeCell ref="A46:B46"/>
@@ -3655,36 +3680,6 @@
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="A43:B44"/>
     <mergeCell ref="H43:J44"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
